--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Sno</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>08</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
@@ -741,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
@@ -764,7 +767,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>11</v>
@@ -787,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
@@ -810,7 +813,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>11</v>
@@ -833,7 +836,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>11</v>
@@ -856,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>11</v>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Sno</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>08</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -643,7 +640,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
@@ -744,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
@@ -767,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>11</v>
@@ -790,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
@@ -813,7 +810,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>11</v>
@@ -836,7 +833,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>11</v>
@@ -859,7 +856,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>11</v>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KYCDemo\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" tabRatio="500"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Sno</t>
   </si>
@@ -153,13 +148,52 @@
   </si>
   <si>
     <t>08</t>
+  </si>
+  <si>
+    <t>BuyCryptoSingaporeLite</t>
+  </si>
+  <si>
+    <t>buyCryptoSingaporeLite</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>buyCryptoUSDollerLite</t>
+  </si>
+  <si>
+    <t>BuyCryptoUSLite</t>
+  </si>
+  <si>
+    <t>BuyCryptoBritishLite</t>
+  </si>
+  <si>
+    <t>buyCryptoBritishLite</t>
+  </si>
+  <si>
+    <t>buyCryptoEuroLite</t>
+  </si>
+  <si>
+    <t>BuyCryptoEuroLite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,10 +459,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +493,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,14 +668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
@@ -655,7 +687,7 @@
     <col min="8" max="1024" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -678,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -686,13 +718,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
@@ -701,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -709,13 +741,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
@@ -724,7 +756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -732,13 +764,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
@@ -747,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -755,13 +787,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
@@ -770,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -778,13 +810,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -793,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -801,13 +833,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -816,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -824,13 +856,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
@@ -839,7 +871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -847,28 +879,120 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
       <formula1>"https://manage.mailmodo.com/"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KYCDemo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KYCDemo\KYCDemo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>Sno</t>
   </si>
@@ -153,6 +153,48 @@
   </si>
   <si>
     <t>08</t>
+  </si>
+  <si>
+    <t>BuyCryptoSingaporeLite</t>
+  </si>
+  <si>
+    <t>buyCryptoSingaporeLite</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>buyCryptoUSDollerLite</t>
+  </si>
+  <si>
+    <t>BuyCryptoUSLite</t>
+  </si>
+  <si>
+    <t>BuyCryptoBritishLite</t>
+  </si>
+  <si>
+    <t>buyCryptoBritishLite</t>
+  </si>
+  <si>
+    <t>buyCryptoEuroLite</t>
+  </si>
+  <si>
+    <t>BuyCryptoEuroLite</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -190,7 +232,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +248,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -241,7 +295,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -258,12 +312,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,196 +741,288 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="F6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="F7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="F8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="F10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
       <formula1>"https://manage.mailmodo.com/"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F11" activeCellId="1" sqref="F6:F13 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>11</v>
@@ -780,7 +780,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>11</v>
@@ -803,7 +803,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
@@ -826,7 +826,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>11</v>
@@ -849,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>11</v>
@@ -872,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>11</v>
@@ -895,7 +895,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>11</v>
@@ -918,7 +918,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>11</v>
@@ -941,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>11</v>
@@ -964,7 +964,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>11</v>
@@ -987,7 +987,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>11</v>
@@ -1010,7 +1010,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>11</v>
